--- a/dst/Book3.xlsx
+++ b/dst/Book3.xlsx
@@ -138,7 +138,11 @@
             <a:t>K &amp; R C</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>言語</a:t>
           </a:r>
           <a:r>
@@ -2062,6 +2066,106 @@
         <a:xfrm>
           <a:off x="5362575" y="1200150"/>
           <a:ext cx="4514850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="1200150"/>
+          <a:ext cx="6010275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563225" y="1209675"/>
+          <a:ext cx="1495425" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2355,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
